--- a/admin/js_code/tool_js/file_up/all_student.xlsx
+++ b/admin/js_code/tool_js/file_up/all_student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP-job\htdocs\System-Project\sys-abaacademic-2023\admin\js_code\tool_js\file_up\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon_myjob\www\mcucm-languagecenter-2023\admin\js_code\tool_js\file_up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA8B342-88F5-430B-858C-1C8B2FF4B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7F1CD-3D34-410A-A468-58630955EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19824" windowHeight="10968" xr2:uid="{539B333B-EDA7-49E5-925B-9E802691E5D8}"/>
+    <workbookView xWindow="3600" yWindow="1464" windowWidth="19080" windowHeight="11496" xr2:uid="{D6D4950D-EA47-4215-B8B2-74A764D58B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,115 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
-  <si>
-    <t>บัตรประชาชน</t>
-  </si>
-  <si>
-    <t>ชื่อ*</t>
-  </si>
-  <si>
-    <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>ชื่อภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>นามสกุลภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>ชื่อเล่น</t>
-  </si>
-  <si>
-    <t>รหัสนักเรียน*</t>
-  </si>
-  <si>
-    <t>ระดับชั้น*</t>
-  </si>
-  <si>
-    <t>วันเดือนปีเกิด ค.ศ. (1994-01-01)</t>
-  </si>
-  <si>
-    <t>สถานะนักเรียน*</t>
-  </si>
-  <si>
-    <t>ห้องเรียน*</t>
-  </si>
-  <si>
-    <t>ประถมศึกษา</t>
-  </si>
-  <si>
-    <t>มัธยมศึกษาตอนต้น</t>
-  </si>
-  <si>
-    <t>มัธยมศึกษาตอนปลาย</t>
-  </si>
-  <si>
-    <t>เพศ</t>
-  </si>
-  <si>
-    <t>Grade 1Inter1</t>
-  </si>
-  <si>
-    <t>Grade 1A</t>
-  </si>
-  <si>
-    <t>Grade 1B</t>
-  </si>
-  <si>
-    <t>ชาย</t>
-  </si>
-  <si>
-    <t>หญิง</t>
-  </si>
-  <si>
-    <t>ปกติ</t>
-  </si>
-  <si>
-    <t>1994-04-15</t>
-  </si>
-  <si>
-    <t>1111111111111</t>
-  </si>
-  <si>
-    <t>2222222222222</t>
-  </si>
-  <si>
-    <t>3333333333333</t>
-  </si>
-  <si>
-    <t>ชื่อนักเรียน</t>
-  </si>
-  <si>
-    <t>นามสกุลนักเรียน</t>
-  </si>
-  <si>
-    <t>1994-05-01</t>
-  </si>
-  <si>
-    <t>9901</t>
-  </si>
-  <si>
-    <t>9902</t>
-  </si>
-  <si>
-    <t>9903</t>
-  </si>
-  <si>
-    <t>ชื่อนักเรียนภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>นามสกุลนักเรียนภาษาอังกฤษ</t>
-  </si>
-  <si>
-    <t>ชื่อเล่นนักเรียน</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>prefixTh</t>
+  </si>
+  <si>
+    <t>nameTh</t>
+  </si>
+  <si>
+    <t>surnameEn</t>
+  </si>
+  <si>
+    <t>surnameTn</t>
+  </si>
+  <si>
+    <t>prefixEh</t>
+  </si>
+  <si>
+    <t>nameEh</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>student_idcard</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>student_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,19 +69,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,184 +413,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4237DCC-B1DD-4F23-B9FD-A1BD9DC4AAE2}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BA91C4-406D-4DCB-A0A8-1B2D976530A9}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1"/>
-    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="1"/>
-    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="1"/>
-    <col min="12" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/admin/js_code/tool_js/file_up/all_student.xlsx
+++ b/admin/js_code/tool_js/file_up/all_student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon_myjob\www\mcucm-languagecenter-2023\admin\js_code\tool_js\file_up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7F1CD-3D34-410A-A468-58630955EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF36E0E9-927A-4CDF-A0C7-4DAE35EFFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1464" windowWidth="19080" windowHeight="11496" xr2:uid="{D6D4950D-EA47-4215-B8B2-74A764D58B4A}"/>
+    <workbookView xWindow="1404" yWindow="3060" windowWidth="19080" windowHeight="11496" xr2:uid="{D6D4950D-EA47-4215-B8B2-74A764D58B4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>prefixTh</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>student_id</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -414,25 +417,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BA91C4-406D-4DCB-A0A8-1B2D976530A9}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -440,27 +444,30 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/admin/js_code/tool_js/file_up/all_student.xlsx
+++ b/admin/js_code/tool_js/file_up/all_student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon_myjob\www\mcucm-languagecenter-2023\admin\js_code\tool_js\file_up\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP-job\htdocs\System-Project\sys-abaacademic-2023\admin\js_code\tool_js\file_up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF36E0E9-927A-4CDF-A0C7-4DAE35EFFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA8B342-88F5-430B-858C-1C8B2FF4B242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="3060" windowWidth="19080" windowHeight="11496" xr2:uid="{D6D4950D-EA47-4215-B8B2-74A764D58B4A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19824" windowHeight="10968" xr2:uid="{539B333B-EDA7-49E5-925B-9E802691E5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>prefixTh</t>
-  </si>
-  <si>
-    <t>nameTh</t>
-  </si>
-  <si>
-    <t>surnameEn</t>
-  </si>
-  <si>
-    <t>surnameTn</t>
-  </si>
-  <si>
-    <t>prefixEh</t>
-  </si>
-  <si>
-    <t>nameEh</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>student_idcard</t>
-  </si>
-  <si>
-    <t>memo</t>
-  </si>
-  <si>
-    <t>student_id</t>
-  </si>
-  <si>
-    <t>gender</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+  <si>
+    <t>บัตรประชาชน</t>
+  </si>
+  <si>
+    <t>ชื่อ*</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>ชื่อภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>นามสกุลภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>ชื่อเล่น</t>
+  </si>
+  <si>
+    <t>รหัสนักเรียน*</t>
+  </si>
+  <si>
+    <t>ระดับชั้น*</t>
+  </si>
+  <si>
+    <t>วันเดือนปีเกิด ค.ศ. (1994-01-01)</t>
+  </si>
+  <si>
+    <t>สถานะนักเรียน*</t>
+  </si>
+  <si>
+    <t>ห้องเรียน*</t>
+  </si>
+  <si>
+    <t>ประถมศึกษา</t>
+  </si>
+  <si>
+    <t>มัธยมศึกษาตอนต้น</t>
+  </si>
+  <si>
+    <t>มัธยมศึกษาตอนปลาย</t>
+  </si>
+  <si>
+    <t>เพศ</t>
+  </si>
+  <si>
+    <t>Grade 1Inter1</t>
+  </si>
+  <si>
+    <t>Grade 1A</t>
+  </si>
+  <si>
+    <t>Grade 1B</t>
+  </si>
+  <si>
+    <t>ชาย</t>
+  </si>
+  <si>
+    <t>หญิง</t>
+  </si>
+  <si>
+    <t>ปกติ</t>
+  </si>
+  <si>
+    <t>1994-04-15</t>
+  </si>
+  <si>
+    <t>1111111111111</t>
+  </si>
+  <si>
+    <t>2222222222222</t>
+  </si>
+  <si>
+    <t>3333333333333</t>
+  </si>
+  <si>
+    <t>ชื่อนักเรียน</t>
+  </si>
+  <si>
+    <t>นามสกุลนักเรียน</t>
+  </si>
+  <si>
+    <t>1994-05-01</t>
+  </si>
+  <si>
+    <t>9901</t>
+  </si>
+  <si>
+    <t>9902</t>
+  </si>
+  <si>
+    <t>9903</t>
+  </si>
+  <si>
+    <t>ชื่อนักเรียนภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>นามสกุลนักเรียนภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>ชื่อเล่นนักเรียน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,19 +141,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -416,63 +484,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BA91C4-406D-4DCB-A0A8-1B2D976530A9}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4237DCC-B1DD-4F23-B9FD-A1BD9DC4AAE2}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="1"/>
+    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>